--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2405565.584647921</v>
+        <v>2403068.418471056</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9059754.427202048</v>
+        <v>9059754.427202046</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>241.4397165414184</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1430,13 +1430,13 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
         <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>307.5272957798204</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800355</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D13" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996191</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I13" t="n">
         <v>49.37728379124556</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145479</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T13" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U13" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V13" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W13" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X13" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536692</v>
+        <v>251.0267230750005</v>
       </c>
       <c r="F14" t="n">
         <v>359.9009091231189</v>
@@ -1622,7 +1622,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
@@ -1664,16 +1664,16 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X14" t="n">
         <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
-        <v>312.1048439251066</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C16" t="n">
         <v>120.2716844800353</v>
@@ -1771,19 +1771,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G16" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145478</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T16" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U16" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V16" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W16" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X16" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>288.7835684262955</v>
+        <v>288.7835684262953</v>
       </c>
       <c r="C17" t="n">
         <v>271.3226185338224</v>
       </c>
       <c r="D17" t="n">
-        <v>260.7327683834978</v>
+        <v>260.7327683834977</v>
       </c>
       <c r="E17" t="n">
-        <v>287.9800968350767</v>
+        <v>287.9800968350766</v>
       </c>
       <c r="F17" t="n">
-        <v>312.9257725045263</v>
+        <v>312.9257725045262</v>
       </c>
       <c r="G17" t="n">
-        <v>316.9714524162683</v>
+        <v>316.9714524162682</v>
       </c>
       <c r="H17" t="n">
         <v>200.6574911501353</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>15.23748855099069</v>
+        <v>15.23748855099065</v>
       </c>
       <c r="T17" t="n">
-        <v>57.68543902955665</v>
+        <v>109.967696902435</v>
       </c>
       <c r="U17" t="n">
         <v>157.0448987217168</v>
       </c>
       <c r="V17" t="n">
-        <v>233.8019852329498</v>
+        <v>233.8019852329497</v>
       </c>
       <c r="W17" t="n">
-        <v>255.2906954802279</v>
+        <v>255.2906954802278</v>
       </c>
       <c r="X17" t="n">
-        <v>275.7808274412839</v>
+        <v>275.7808274412838</v>
       </c>
       <c r="Y17" t="n">
-        <v>292.2876654188684</v>
+        <v>240.0054075459918</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.88170694475215</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>73.29654786144269</v>
+        <v>73.29654786144263</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>54.66519978102716</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>52.48368940938397</v>
       </c>
       <c r="F19" t="n">
-        <v>51.4707747857461</v>
+        <v>51.47077478574604</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>72.07553502184302</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>50.80474167713558</v>
       </c>
       <c r="I19" t="n">
-        <v>4.862468355195993</v>
+        <v>2.40214717265291</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>95.81875209425675</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>125.5986760389841</v>
+        <v>125.598676038984</v>
       </c>
       <c r="U19" t="n">
-        <v>192.2615649684277</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>158.1873700866429</v>
+        <v>158.1873700866428</v>
       </c>
       <c r="W19" t="n">
-        <v>192.5727250994059</v>
+        <v>192.5727250994058</v>
       </c>
       <c r="X19" t="n">
-        <v>131.759382151852</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>124.6343801149096</v>
+        <v>127.0947012974524</v>
       </c>
     </row>
     <row r="20">
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>288.7835684262955</v>
+        <v>288.7835684262953</v>
       </c>
       <c r="C20" t="n">
         <v>271.3226185338224</v>
       </c>
       <c r="D20" t="n">
-        <v>260.7327683834978</v>
+        <v>260.7327683834977</v>
       </c>
       <c r="E20" t="n">
-        <v>287.9800968350767</v>
+        <v>287.9800968350766</v>
       </c>
       <c r="F20" t="n">
-        <v>312.9257725045263</v>
+        <v>260.6435146316493</v>
       </c>
       <c r="G20" t="n">
-        <v>316.9714524162683</v>
+        <v>316.9714524162682</v>
       </c>
       <c r="H20" t="n">
         <v>200.6574911501353</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>15.2374885509907</v>
+        <v>15.23748855099065</v>
       </c>
       <c r="T20" t="n">
-        <v>57.68543902955664</v>
+        <v>109.967696902435</v>
       </c>
       <c r="U20" t="n">
         <v>157.0448987217168</v>
       </c>
       <c r="V20" t="n">
-        <v>233.8019852329498</v>
+        <v>233.8019852329497</v>
       </c>
       <c r="W20" t="n">
-        <v>255.2906954802279</v>
+        <v>255.2906954802278</v>
       </c>
       <c r="X20" t="n">
-        <v>275.7808274412839</v>
+        <v>275.7808274412838</v>
       </c>
       <c r="Y20" t="n">
         <v>292.2876654188684</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>85.8817069447521</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>73.29654786144263</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>54.66519978102716</v>
       </c>
       <c r="E22" t="n">
-        <v>52.48368940938403</v>
+        <v>52.48368940938397</v>
       </c>
       <c r="F22" t="n">
-        <v>51.4707747857461</v>
+        <v>51.47077478574604</v>
       </c>
       <c r="G22" t="n">
-        <v>72.07553502184308</v>
+        <v>72.07553502184302</v>
       </c>
       <c r="H22" t="n">
-        <v>50.80474167713564</v>
+        <v>50.80474167713558</v>
       </c>
       <c r="I22" t="n">
-        <v>2.402147172652967</v>
+        <v>2.40214717265291</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>95.81875209425675</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>125.5986760389841</v>
+        <v>125.598676038984</v>
       </c>
       <c r="U22" t="n">
-        <v>192.2615649684277</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>158.1873700866429</v>
+        <v>158.1873700866428</v>
       </c>
       <c r="W22" t="n">
-        <v>192.5727250994059</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>134.2197033343946</v>
+        <v>131.759382151852</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>132.1128218645905</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>288.7835684262955</v>
+        <v>288.7835684262953</v>
       </c>
       <c r="C23" t="n">
         <v>271.3226185338224</v>
       </c>
       <c r="D23" t="n">
-        <v>260.7327683834978</v>
+        <v>260.7327683834977</v>
       </c>
       <c r="E23" t="n">
-        <v>287.9800968350767</v>
+        <v>246.2549806781864</v>
       </c>
       <c r="F23" t="n">
-        <v>312.9257725045263</v>
+        <v>312.9257725045262</v>
       </c>
       <c r="G23" t="n">
-        <v>316.9714524162683</v>
+        <v>316.9714524162682</v>
       </c>
       <c r="H23" t="n">
-        <v>174.1698635442352</v>
+        <v>200.6574911501353</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>15.23748855099065</v>
       </c>
       <c r="T23" t="n">
         <v>109.967696902435</v>
@@ -2375,13 +2375,13 @@
         <v>157.0448987217168</v>
       </c>
       <c r="V23" t="n">
-        <v>233.8019852329498</v>
+        <v>233.8019852329497</v>
       </c>
       <c r="W23" t="n">
-        <v>255.2906954802279</v>
+        <v>255.2906954802278</v>
       </c>
       <c r="X23" t="n">
-        <v>275.7808274412839</v>
+        <v>275.7808274412838</v>
       </c>
       <c r="Y23" t="n">
         <v>292.2876654188684</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247699</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.88170694475215</v>
+        <v>85.8817069447521</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>73.29654786144263</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>54.66519978102716</v>
       </c>
       <c r="E25" t="n">
-        <v>52.48368940938403</v>
+        <v>52.48368940938397</v>
       </c>
       <c r="F25" t="n">
-        <v>51.4707747857461</v>
+        <v>51.47077478574604</v>
       </c>
       <c r="G25" t="n">
-        <v>72.07553502184308</v>
+        <v>72.07553502184302</v>
       </c>
       <c r="H25" t="n">
-        <v>50.80474167713564</v>
+        <v>50.80474167713558</v>
       </c>
       <c r="I25" t="n">
-        <v>2.402147172652967</v>
+        <v>2.40214717265291</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>95.81875209425675</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>128.0589972215262</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>192.2615649684276</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>192.5727250994059</v>
+        <v>200.0511668490863</v>
       </c>
       <c r="X25" t="n">
         <v>131.759382151852</v>
@@ -2555,19 +2555,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.297755152415</v>
+        <v>201.5085875576248</v>
       </c>
       <c r="D26" t="n">
         <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>214.468020085222</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2615,7 +2615,7 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
         <v>322.7559640598764</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797657</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433864</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572818</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2776,7 +2776,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y28" t="n">
         <v>171.6095167335022</v>
@@ -2792,19 +2792,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020903</v>
+        <v>219.9100929884916</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348608</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>288.2413864229298</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247699</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145475</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>285.8032029865174</v>
+        <v>285.8032029865175</v>
       </c>
       <c r="C32" t="n">
-        <v>268.3422530940444</v>
+        <v>268.3422530940445</v>
       </c>
       <c r="D32" t="n">
-        <v>257.7524029437198</v>
+        <v>257.7524029437199</v>
       </c>
       <c r="E32" t="n">
-        <v>284.9997313952986</v>
+        <v>284.9997313952987</v>
       </c>
       <c r="F32" t="n">
         <v>309.9454070647483</v>
       </c>
       <c r="G32" t="n">
-        <v>313.9910869764903</v>
+        <v>313.9910869764904</v>
       </c>
       <c r="H32" t="n">
-        <v>197.6771257103573</v>
+        <v>197.6771257103574</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>12.25712311121271</v>
+        <v>12.25712311121275</v>
       </c>
       <c r="T32" t="n">
-        <v>106.987331462657</v>
+        <v>106.9873314626571</v>
       </c>
       <c r="U32" t="n">
-        <v>154.0645332819388</v>
+        <v>154.0645332819389</v>
       </c>
       <c r="V32" t="n">
-        <v>230.8216197931717</v>
+        <v>230.8216197931718</v>
       </c>
       <c r="W32" t="n">
         <v>252.3103300404499</v>
@@ -3095,7 +3095,7 @@
         <v>272.8004620015059</v>
       </c>
       <c r="Y32" t="n">
-        <v>289.3072999790904</v>
+        <v>289.3072999790905</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247699</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>82.90134150497416</v>
+        <v>125.5659502648649</v>
       </c>
       <c r="C34" t="n">
-        <v>70.31618242166469</v>
+        <v>70.31618242166473</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>51.68483434124926</v>
       </c>
       <c r="E34" t="n">
-        <v>49.50332396960603</v>
+        <v>49.50332396960607</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>48.49040934596815</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>69.09516958206513</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>47.82437623735768</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>127.504509407454</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>122.618310599206</v>
+        <v>122.6183105992061</v>
       </c>
       <c r="U34" t="n">
-        <v>189.2811995286497</v>
+        <v>189.2811995286498</v>
       </c>
       <c r="V34" t="n">
-        <v>155.2070046468648</v>
+        <v>155.2070046468649</v>
       </c>
       <c r="W34" t="n">
-        <v>189.5923596596278</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>128.779016712074</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>121.6540146751316</v>
+        <v>121.6540146751317</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D35" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U35" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383228</v>
+        <v>133.1067657762834</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>134.2912433677308</v>
+        <v>92.084305103337</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775078</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V37" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007084</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383229</v>
+        <v>124.3541982182252</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052283</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010735</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846416</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092322</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I40" t="n">
-        <v>50.95950582245165</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V40" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
         <v>256.998321392578</v>
@@ -3749,13 +3749,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G41" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W41" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383228</v>
+        <v>82.14725995383236</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052281</v>
+        <v>69.5621008705229</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010742</v>
       </c>
       <c r="E43" t="n">
-        <v>92.28848050112497</v>
+        <v>48.74924241846423</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482631</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092329</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621585</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>50.95950582245094</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333687</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775078</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W43" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D44" t="n">
         <v>256.998321392578</v>
@@ -3986,13 +3986,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136061</v>
       </c>
       <c r="G44" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
         <v>153.310451730797</v>
@@ -4037,13 +4037,13 @@
         <v>230.0675382420299</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893089</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X44" t="n">
         <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383228</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F46" t="n">
-        <v>91.27556587748705</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4180,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>42.20693826439368</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333687</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775078</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>154.452923095723</v>
       </c>
       <c r="W46" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2012.217276338823</v>
+        <v>1333.423586391121</v>
       </c>
       <c r="C11" t="n">
-        <v>1690.704392346485</v>
+        <v>1333.423586391121</v>
       </c>
       <c r="D11" t="n">
-        <v>1379.888326687808</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="E11" t="n">
-        <v>1041.549707037637</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="F11" t="n">
-        <v>678.0134351961026</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="G11" t="n">
-        <v>310.3906179891717</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218342</v>
@@ -5039,10 +5039,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5057,7 +5057,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T11" t="n">
-        <v>3167.077706941466</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U11" t="n">
-        <v>2960.996863163376</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V11" t="n">
-        <v>2677.383608767878</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W11" t="n">
-        <v>2677.383608767878</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X11" t="n">
-        <v>2351.367483454872</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y11" t="n">
-        <v>2351.367483454872</v>
+        <v>1672.57379350717</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5121,10 +5121,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,10 +5136,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5151,7 +5151,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052946</v>
+        <v>759.4662498052937</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254601</v>
       </c>
       <c r="D13" t="n">
         <v>535.3126933611984</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268786</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G13" t="n">
         <v>215.1557144998337</v>
@@ -5197,10 +5197,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315259</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L13" t="n">
         <v>771.6978860337115</v>
@@ -5218,10 +5218,10 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S13" t="n">
         <v>2112.720554588246</v>
@@ -5230,19 +5230,19 @@
         <v>1938.403572105846</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V13" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.665081687461</v>
+        <v>893.6650816874602</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1696.959858232655</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="C14" t="n">
-        <v>1696.959858232655</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="D14" t="n">
-        <v>1386.143792573977</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="E14" t="n">
-        <v>1047.805172923807</v>
+        <v>1047.805172923808</v>
       </c>
       <c r="F14" t="n">
-        <v>684.2689010822724</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="G14" t="n">
         <v>316.6460838753429</v>
@@ -5276,25 +5276,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
@@ -5303,25 +5303,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T14" t="n">
-        <v>3167.077706941466</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U14" t="n">
-        <v>2960.996863163376</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V14" t="n">
-        <v>2677.383608767878</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W14" t="n">
-        <v>2677.383608767878</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X14" t="n">
-        <v>2351.367483454871</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y14" t="n">
-        <v>2036.110065348703</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5358,10 +5358,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,10 +5373,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052938</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254602</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611978</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E16" t="n">
-        <v>434.849232726878</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F16" t="n">
-        <v>335.408918177041</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998332</v>
+        <v>215.1557144998335</v>
       </c>
       <c r="H16" t="n">
         <v>116.3881606657643</v>
@@ -5434,13 +5434,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K16" t="n">
         <v>408.6327023328085</v>
       </c>
       <c r="L16" t="n">
-        <v>771.697886033711</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5455,31 +5455,31 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T16" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V16" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874603</v>
+        <v>893.6650816874609</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1733.774944536555</v>
+        <v>1733.774944536554</v>
       </c>
       <c r="C17" t="n">
-        <v>1459.71169349229</v>
+        <v>1459.711693492289</v>
       </c>
       <c r="D17" t="n">
-        <v>1196.345260781686</v>
+        <v>1196.345260781685</v>
       </c>
       <c r="E17" t="n">
-        <v>905.4562740795886</v>
+        <v>905.4562740795873</v>
       </c>
       <c r="F17" t="n">
-        <v>589.3696351861277</v>
+        <v>589.3696351861264</v>
       </c>
       <c r="G17" t="n">
         <v>269.1964509272696</v>
@@ -5513,13 +5513,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
@@ -5543,22 +5543,22 @@
         <v>3310.214419032412</v>
       </c>
       <c r="T17" t="n">
-        <v>3251.946298800537</v>
+        <v>3199.135937312781</v>
       </c>
       <c r="U17" t="n">
-        <v>3093.31508797052</v>
+        <v>3040.504726482764</v>
       </c>
       <c r="V17" t="n">
-        <v>2857.151466523096</v>
+        <v>2804.341105035341</v>
       </c>
       <c r="W17" t="n">
-        <v>2599.282077149129</v>
+        <v>2546.471715661373</v>
       </c>
       <c r="X17" t="n">
-        <v>2320.715584784195</v>
+        <v>2267.90522329644</v>
       </c>
       <c r="Y17" t="n">
-        <v>2025.47551870453</v>
+        <v>2025.475518704529</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F18" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>809.4010556650272</v>
+        <v>427.3188191687807</v>
       </c>
       <c r="C19" t="n">
-        <v>735.364138633267</v>
+        <v>353.2819021370205</v>
       </c>
       <c r="D19" t="n">
-        <v>585.2474992209312</v>
+        <v>298.0645286208314</v>
       </c>
       <c r="E19" t="n">
-        <v>437.3344056385381</v>
+        <v>245.050700934585</v>
       </c>
       <c r="F19" t="n">
-        <v>385.3437240367743</v>
+        <v>193.0600193328213</v>
       </c>
       <c r="G19" t="n">
-        <v>217.6408874114933</v>
+        <v>120.2564486036869</v>
       </c>
       <c r="H19" t="n">
-        <v>71.42370062935109</v>
+        <v>68.93852771769141</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,31 +5692,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S19" t="n">
-        <v>1830.507929811466</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1703.640580277138</v>
+        <v>1608.741314380991</v>
       </c>
       <c r="U19" t="n">
-        <v>1509.436979298929</v>
+        <v>1319.638447506635</v>
       </c>
       <c r="V19" t="n">
-        <v>1349.651756989188</v>
+        <v>1159.853225196895</v>
       </c>
       <c r="W19" t="n">
-        <v>1155.133852848375</v>
+        <v>965.3353210560806</v>
       </c>
       <c r="X19" t="n">
-        <v>1022.043567846504</v>
+        <v>737.3457701580633</v>
       </c>
       <c r="Y19" t="n">
-        <v>896.1502545991203</v>
+        <v>608.9672839990204</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1733.774944536555</v>
+        <v>1680.9645830488</v>
       </c>
       <c r="C20" t="n">
-        <v>1459.71169349229</v>
+        <v>1406.901332004535</v>
       </c>
       <c r="D20" t="n">
-        <v>1196.345260781686</v>
+        <v>1143.534899293931</v>
       </c>
       <c r="E20" t="n">
-        <v>905.4562740795886</v>
+        <v>852.6459125918336</v>
       </c>
       <c r="F20" t="n">
-        <v>589.3696351861277</v>
+        <v>589.3696351861263</v>
       </c>
       <c r="G20" t="n">
         <v>269.1964509272696</v>
@@ -5750,25 +5750,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
@@ -5780,22 +5780,22 @@
         <v>3310.214419032412</v>
       </c>
       <c r="T20" t="n">
-        <v>3251.946298800537</v>
+        <v>3199.135937312781</v>
       </c>
       <c r="U20" t="n">
-        <v>3093.31508797052</v>
+        <v>3040.504726482764</v>
       </c>
       <c r="V20" t="n">
-        <v>2857.151466523096</v>
+        <v>2804.341105035341</v>
       </c>
       <c r="W20" t="n">
-        <v>2599.282077149129</v>
+        <v>2546.471715661373</v>
       </c>
       <c r="X20" t="n">
-        <v>2320.715584784195</v>
+        <v>2267.90522329644</v>
       </c>
       <c r="Y20" t="n">
-        <v>2025.47551870453</v>
+        <v>1972.665157216775</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G21" t="n">
         <v>176.021302392778</v>
@@ -5829,10 +5829,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L21" t="n">
         <v>765.151745215813</v>
@@ -5853,28 +5853,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>617.1173509610743</v>
+        <v>427.3188191687807</v>
       </c>
       <c r="C22" t="n">
-        <v>448.1811680331674</v>
+        <v>353.2819021370205</v>
       </c>
       <c r="D22" t="n">
-        <v>298.0645286208317</v>
+        <v>298.0645286208314</v>
       </c>
       <c r="E22" t="n">
-        <v>245.0507009345852</v>
+        <v>245.050700934585</v>
       </c>
       <c r="F22" t="n">
-        <v>193.0600193328215</v>
+        <v>193.0600193328213</v>
       </c>
       <c r="G22" t="n">
-        <v>120.2564486036871</v>
+        <v>120.2564486036869</v>
       </c>
       <c r="H22" t="n">
-        <v>68.93852771769147</v>
+        <v>68.93852771769141</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218342</v>
@@ -5932,28 +5932,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S22" t="n">
-        <v>1830.507929811465</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T22" t="n">
-        <v>1703.640580277138</v>
+        <v>1518.910857138519</v>
       </c>
       <c r="U22" t="n">
-        <v>1509.436979298928</v>
+        <v>1229.807990264163</v>
       </c>
       <c r="V22" t="n">
-        <v>1349.651756989188</v>
+        <v>1070.022767954423</v>
       </c>
       <c r="W22" t="n">
-        <v>1155.133852848374</v>
+        <v>780.6055979174621</v>
       </c>
       <c r="X22" t="n">
-        <v>1019.558394934844</v>
+        <v>647.5153129155915</v>
       </c>
       <c r="Y22" t="n">
-        <v>798.765815791314</v>
+        <v>514.0680181028738</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1707.237393289942</v>
+        <v>1691.845990713185</v>
       </c>
       <c r="C23" t="n">
-        <v>1433.174142245677</v>
+        <v>1417.782739668919</v>
       </c>
       <c r="D23" t="n">
-        <v>1169.807709535073</v>
+        <v>1154.416306958316</v>
       </c>
       <c r="E23" t="n">
-        <v>878.9187228329756</v>
+        <v>905.6739022328748</v>
       </c>
       <c r="F23" t="n">
-        <v>562.8320839395146</v>
+        <v>589.5872633394139</v>
       </c>
       <c r="G23" t="n">
-        <v>242.6588996806582</v>
+        <v>269.4140790805573</v>
       </c>
       <c r="H23" t="n">
         <v>66.72974458547111</v>
@@ -6005,34 +6005,34 @@
         <v>2623.745655092795</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.520021449973</v>
+        <v>3029.183800961071</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.806383205655</v>
+        <v>3277.470162716753</v>
       </c>
       <c r="R23" t="n">
         <v>3336.487229273555</v>
       </c>
       <c r="S23" t="n">
-        <v>3336.487229273555</v>
+        <v>3321.095826696797</v>
       </c>
       <c r="T23" t="n">
-        <v>3225.408747553924</v>
+        <v>3210.017344977166</v>
       </c>
       <c r="U23" t="n">
-        <v>3066.777536723907</v>
+        <v>3051.386134147149</v>
       </c>
       <c r="V23" t="n">
-        <v>2830.613915276483</v>
+        <v>2815.222512699725</v>
       </c>
       <c r="W23" t="n">
-        <v>2572.744525902515</v>
+        <v>2557.353123325758</v>
       </c>
       <c r="X23" t="n">
-        <v>2294.178033537582</v>
+        <v>2278.786630960825</v>
       </c>
       <c r="Y23" t="n">
-        <v>1998.937967457917</v>
+        <v>1983.54656488116</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.7614826343964</v>
+        <v>941.7614826343959</v>
       </c>
       <c r="C24" t="n">
-        <v>767.3084533532694</v>
+        <v>767.3084533532689</v>
       </c>
       <c r="D24" t="n">
-        <v>618.3740436920182</v>
+        <v>618.3740436920176</v>
       </c>
       <c r="E24" t="n">
-        <v>459.1365886865626</v>
+        <v>459.1365886865621</v>
       </c>
       <c r="F24" t="n">
-        <v>312.6020307134476</v>
+        <v>312.6020307134471</v>
       </c>
       <c r="G24" t="n">
-        <v>176.2389305460657</v>
+        <v>176.2389305460652</v>
       </c>
       <c r="H24" t="n">
-        <v>85.73703618393318</v>
+        <v>85.73703618393272</v>
       </c>
       <c r="I24" t="n">
         <v>66.72974458547111</v>
@@ -6096,13 +6096,13 @@
         <v>2435.688930772624</v>
       </c>
       <c r="T24" t="n">
-        <v>2243.04593045048</v>
+        <v>2243.045930450479</v>
       </c>
       <c r="U24" t="n">
         <v>2014.978083584895</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.825975353153</v>
+        <v>1779.825975353152</v>
       </c>
       <c r="W24" t="n">
         <v>1525.588618624951</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>617.334979114362</v>
+        <v>427.5364473220685</v>
       </c>
       <c r="C25" t="n">
-        <v>448.3987961864551</v>
+        <v>353.4995302903082</v>
       </c>
       <c r="D25" t="n">
-        <v>298.2821567741194</v>
+        <v>298.2821567741191</v>
       </c>
       <c r="E25" t="n">
-        <v>245.2683290878729</v>
+        <v>245.2683290878727</v>
       </c>
       <c r="F25" t="n">
-        <v>193.2776474861092</v>
+        <v>193.277647486109</v>
       </c>
       <c r="G25" t="n">
-        <v>120.4740767569748</v>
+        <v>120.4740767569747</v>
       </c>
       <c r="H25" t="n">
-        <v>69.15615587097916</v>
+        <v>69.15615587097911</v>
       </c>
       <c r="I25" t="n">
         <v>66.72974458547111</v>
@@ -6169,28 +6169,28 @@
         <v>1927.51217624178</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.51217624178</v>
+        <v>1837.681718999308</v>
       </c>
       <c r="S25" t="n">
-        <v>1830.725557964753</v>
+        <v>1645.995834826134</v>
       </c>
       <c r="T25" t="n">
-        <v>1701.373035518767</v>
+        <v>1424.22921939566</v>
       </c>
       <c r="U25" t="n">
-        <v>1412.27016864441</v>
+        <v>1230.02561841745</v>
       </c>
       <c r="V25" t="n">
-        <v>1157.585680438523</v>
+        <v>975.3411302115634</v>
       </c>
       <c r="W25" t="n">
-        <v>963.0677762977093</v>
+        <v>773.2692445054156</v>
       </c>
       <c r="X25" t="n">
-        <v>829.9774912958386</v>
+        <v>640.1789595035449</v>
       </c>
       <c r="Y25" t="n">
-        <v>704.0841780484551</v>
+        <v>514.2856462561615</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1617.567949450638</v>
+        <v>1312.248927128597</v>
       </c>
       <c r="C26" t="n">
-        <v>1296.0550654583</v>
+        <v>1108.704899292613</v>
       </c>
       <c r="D26" t="n">
-        <v>985.2389997996228</v>
+        <v>797.8888336339355</v>
       </c>
       <c r="E26" t="n">
-        <v>646.9003801494518</v>
+        <v>797.8888336339355</v>
       </c>
       <c r="F26" t="n">
-        <v>283.3641083079176</v>
+        <v>434.3525617924013</v>
       </c>
       <c r="G26" t="n">
         <v>66.72974458547111</v>
@@ -6263,13 +6263,13 @@
         <v>2625.423980907432</v>
       </c>
       <c r="W26" t="n">
-        <v>2625.423980907432</v>
+        <v>2320.104958585391</v>
       </c>
       <c r="X26" t="n">
-        <v>2299.407855594425</v>
+        <v>1994.088833272384</v>
       </c>
       <c r="Y26" t="n">
-        <v>1956.718156566687</v>
+        <v>1651.399134244646</v>
       </c>
     </row>
     <row r="27">
@@ -6306,10 +6306,10 @@
         <v>160.4070140760884</v>
       </c>
       <c r="K27" t="n">
-        <v>398.6712130564355</v>
+        <v>398.6712130564366</v>
       </c>
       <c r="L27" t="n">
-        <v>765.3693733691007</v>
+        <v>765.3693733691018</v>
       </c>
       <c r="M27" t="n">
         <v>1212.645698591418</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>759.6838779585812</v>
+        <v>759.6838779585818</v>
       </c>
       <c r="C28" t="n">
-        <v>638.1973279787476</v>
+        <v>638.1973279787481</v>
       </c>
       <c r="D28" t="n">
-        <v>535.5303215144852</v>
+        <v>535.5303215144858</v>
       </c>
       <c r="E28" t="n">
-        <v>435.0668608801654</v>
+        <v>435.066860880166</v>
       </c>
       <c r="F28" t="n">
-        <v>335.6265463303284</v>
+        <v>335.6265463303289</v>
       </c>
       <c r="G28" t="n">
-        <v>215.3733426531207</v>
+        <v>215.3733426531213</v>
       </c>
       <c r="H28" t="n">
-        <v>116.6057888190523</v>
+        <v>116.6057888190524</v>
       </c>
       <c r="I28" t="n">
         <v>66.72974458547111</v>
       </c>
       <c r="J28" t="n">
-        <v>158.3577622848133</v>
+        <v>158.3577622848128</v>
       </c>
       <c r="K28" t="n">
-        <v>408.8503304860963</v>
+        <v>408.8503304860959</v>
       </c>
       <c r="L28" t="n">
-        <v>771.915514186999</v>
+        <v>771.9155141869986</v>
       </c>
       <c r="M28" t="n">
-        <v>1162.577945038955</v>
+        <v>1162.577945038954</v>
       </c>
       <c r="N28" t="n">
-        <v>1550.491706997226</v>
+        <v>1550.491706997225</v>
       </c>
       <c r="O28" t="n">
-        <v>1896.326691170046</v>
+        <v>1896.326691170045</v>
       </c>
       <c r="P28" t="n">
         <v>2175.439576856112</v>
       </c>
       <c r="Q28" t="n">
-        <v>2299.555258261032</v>
+        <v>2299.555258261033</v>
       </c>
       <c r="R28" t="n">
-        <v>2257.174433966633</v>
+        <v>2257.174433966634</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.938182741533</v>
+        <v>2112.938182741534</v>
       </c>
       <c r="T28" t="n">
-        <v>1938.621200259132</v>
+        <v>1938.621200259133</v>
       </c>
       <c r="U28" t="n">
-        <v>1696.967966332849</v>
+        <v>1696.96796633285</v>
       </c>
       <c r="V28" t="n">
         <v>1489.733111075036</v>
       </c>
       <c r="W28" t="n">
-        <v>1247.765573986148</v>
+        <v>1247.765573986149</v>
       </c>
       <c r="X28" t="n">
-        <v>1067.225656036204</v>
+        <v>1067.225656036205</v>
       </c>
       <c r="Y28" t="n">
-        <v>893.8827098407476</v>
+        <v>893.8827098407481</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1768.556402935122</v>
+        <v>1312.248927128597</v>
       </c>
       <c r="C29" t="n">
-        <v>1447.043518942784</v>
+        <v>990.7360431362586</v>
       </c>
       <c r="D29" t="n">
-        <v>1136.227453284107</v>
+        <v>768.6046360771762</v>
       </c>
       <c r="E29" t="n">
-        <v>797.8888336339355</v>
+        <v>430.2660164270054</v>
       </c>
       <c r="F29" t="n">
-        <v>434.3525617924013</v>
+        <v>66.72974458547111</v>
       </c>
       <c r="G29" t="n">
-        <v>66.7297445854711</v>
+        <v>66.72974458547111</v>
       </c>
       <c r="H29" t="n">
-        <v>66.7297445854711</v>
+        <v>66.72974458547111</v>
       </c>
       <c r="I29" t="n">
-        <v>66.7297445854711</v>
+        <v>66.72974458547111</v>
       </c>
       <c r="J29" t="n">
         <v>255.6088755444965</v>
@@ -6470,43 +6470,43 @@
         <v>1040.462462482752</v>
       </c>
       <c r="M29" t="n">
-        <v>1584.658146665773</v>
+        <v>1573.994367154676</v>
       </c>
       <c r="N29" t="n">
-        <v>2131.436963724555</v>
+        <v>2120.773184213458</v>
       </c>
       <c r="O29" t="n">
-        <v>2634.409434603892</v>
+        <v>2623.745655092795</v>
       </c>
       <c r="P29" t="n">
-        <v>3029.18380096107</v>
+        <v>3018.520021449973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3277.470162716752</v>
+        <v>3277.470162716753</v>
       </c>
       <c r="R29" t="n">
-        <v>3336.487229273554</v>
+        <v>3336.487229273555</v>
       </c>
       <c r="S29" t="n">
-        <v>3273.646193748723</v>
+        <v>3273.646193748724</v>
       </c>
       <c r="T29" t="n">
-        <v>3273.646193748723</v>
+        <v>3115.118079081019</v>
       </c>
       <c r="U29" t="n">
-        <v>3067.565349970633</v>
+        <v>2909.037235302929</v>
       </c>
       <c r="V29" t="n">
-        <v>3067.565349970633</v>
+        <v>2625.423980907432</v>
       </c>
       <c r="W29" t="n">
-        <v>2776.412434391916</v>
+        <v>2320.104958585391</v>
       </c>
       <c r="X29" t="n">
-        <v>2450.396309078909</v>
+        <v>1994.088833272384</v>
       </c>
       <c r="Y29" t="n">
-        <v>2107.706610051171</v>
+        <v>1651.399134244645</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.7614826343964</v>
+        <v>941.7614826343959</v>
       </c>
       <c r="C30" t="n">
-        <v>767.3084533532694</v>
+        <v>767.3084533532689</v>
       </c>
       <c r="D30" t="n">
-        <v>618.3740436920182</v>
+        <v>618.3740436920176</v>
       </c>
       <c r="E30" t="n">
-        <v>459.1365886865626</v>
+        <v>459.1365886865621</v>
       </c>
       <c r="F30" t="n">
-        <v>312.6020307134476</v>
+        <v>312.6020307134471</v>
       </c>
       <c r="G30" t="n">
-        <v>176.2389305460657</v>
+        <v>176.2389305460652</v>
       </c>
       <c r="H30" t="n">
-        <v>85.73703618393316</v>
+        <v>85.73703618393272</v>
       </c>
       <c r="I30" t="n">
-        <v>66.7297445854711</v>
+        <v>66.72974458547111</v>
       </c>
       <c r="J30" t="n">
         <v>160.4070140760884</v>
@@ -6552,16 +6552,16 @@
         <v>1212.645698591416</v>
       </c>
       <c r="N30" t="n">
-        <v>1686.168742145872</v>
+        <v>1686.168742145871</v>
       </c>
       <c r="O30" t="n">
-        <v>2097.130021563927</v>
+        <v>2097.130021563926</v>
       </c>
       <c r="P30" t="n">
         <v>2407.629613040029</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.271170686629</v>
+        <v>2565.271170686628</v>
       </c>
       <c r="R30" t="n">
         <v>2565.126817279144</v>
@@ -6570,13 +6570,13 @@
         <v>2435.688930772624</v>
       </c>
       <c r="T30" t="n">
-        <v>2243.04593045048</v>
+        <v>2243.045930450479</v>
       </c>
       <c r="U30" t="n">
         <v>2014.978083584895</v>
       </c>
       <c r="V30" t="n">
-        <v>1779.825975353153</v>
+        <v>1779.825975353152</v>
       </c>
       <c r="W30" t="n">
         <v>1525.588618624951</v>
@@ -6607,25 +6607,25 @@
         <v>435.0668608801662</v>
       </c>
       <c r="F31" t="n">
-        <v>335.6265463303292</v>
+        <v>335.6265463303291</v>
       </c>
       <c r="G31" t="n">
         <v>215.3733426531214</v>
       </c>
       <c r="H31" t="n">
-        <v>116.6057888190524</v>
+        <v>116.6057888190525</v>
       </c>
       <c r="I31" t="n">
-        <v>66.7297445854711</v>
+        <v>66.72974458547111</v>
       </c>
       <c r="J31" t="n">
-        <v>158.3577622848133</v>
+        <v>158.3577622848134</v>
       </c>
       <c r="K31" t="n">
-        <v>408.8503304860962</v>
+        <v>408.8503304860965</v>
       </c>
       <c r="L31" t="n">
-        <v>771.915514186999</v>
+        <v>771.9155141869992</v>
       </c>
       <c r="M31" t="n">
         <v>1162.577945038955</v>
@@ -6649,7 +6649,7 @@
         <v>2112.938182741534</v>
       </c>
       <c r="T31" t="n">
-        <v>1938.621200259134</v>
+        <v>1938.621200259133</v>
       </c>
       <c r="U31" t="n">
         <v>1696.96796633285</v>
@@ -6664,7 +6664,7 @@
         <v>1067.225656036205</v>
       </c>
       <c r="Y31" t="n">
-        <v>893.8827098407484</v>
+        <v>893.8827098407485</v>
       </c>
     </row>
     <row r="32">
@@ -6680,22 +6680,22 @@
         <v>1444.876970939627</v>
       </c>
       <c r="D32" t="n">
-        <v>1184.521008370212</v>
+        <v>1184.521008370213</v>
       </c>
       <c r="E32" t="n">
-        <v>896.6424918093048</v>
+        <v>896.6424918093053</v>
       </c>
       <c r="F32" t="n">
-        <v>583.5663230570337</v>
+        <v>583.5663230570345</v>
       </c>
       <c r="G32" t="n">
-        <v>266.4036089393674</v>
+        <v>266.4036089393675</v>
       </c>
       <c r="H32" t="n">
-        <v>66.7297445854711</v>
+        <v>66.72974458547111</v>
       </c>
       <c r="I32" t="n">
-        <v>66.7297445854711</v>
+        <v>66.72974458547111</v>
       </c>
       <c r="J32" t="n">
         <v>255.6088755444965</v>
@@ -6707,43 +6707,43 @@
         <v>1040.462462482752</v>
       </c>
       <c r="M32" t="n">
-        <v>1584.658146665773</v>
+        <v>1573.994367154676</v>
       </c>
       <c r="N32" t="n">
-        <v>2131.436963724555</v>
+        <v>2120.773184213458</v>
       </c>
       <c r="O32" t="n">
-        <v>2634.409434603892</v>
+        <v>2623.745655092795</v>
       </c>
       <c r="P32" t="n">
-        <v>3029.18380096107</v>
+        <v>3018.520021449973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3277.470162716752</v>
+        <v>3277.470162716753</v>
       </c>
       <c r="R32" t="n">
-        <v>3336.487229273554</v>
+        <v>3336.487229273555</v>
       </c>
       <c r="S32" t="n">
-        <v>3324.106296837986</v>
+        <v>3324.106296837987</v>
       </c>
       <c r="T32" t="n">
-        <v>3216.038285259544</v>
+        <v>3216.038285259545</v>
       </c>
       <c r="U32" t="n">
-        <v>3060.417544570717</v>
+        <v>3060.417544570718</v>
       </c>
       <c r="V32" t="n">
-        <v>2827.264393264483</v>
+        <v>2827.264393264484</v>
       </c>
       <c r="W32" t="n">
         <v>2572.405474031706</v>
       </c>
       <c r="X32" t="n">
-        <v>2296.849451807962</v>
+        <v>2296.849451807963</v>
       </c>
       <c r="Y32" t="n">
-        <v>2004.619855869487</v>
+        <v>2004.619855869488</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.7614826343964</v>
+        <v>941.7614826343959</v>
       </c>
       <c r="C33" t="n">
-        <v>767.3084533532694</v>
+        <v>767.3084533532689</v>
       </c>
       <c r="D33" t="n">
-        <v>618.3740436920182</v>
+        <v>618.3740436920176</v>
       </c>
       <c r="E33" t="n">
-        <v>459.1365886865626</v>
+        <v>459.1365886865621</v>
       </c>
       <c r="F33" t="n">
-        <v>312.6020307134476</v>
+        <v>312.6020307134471</v>
       </c>
       <c r="G33" t="n">
-        <v>176.2389305460657</v>
+        <v>176.2389305460652</v>
       </c>
       <c r="H33" t="n">
-        <v>85.73703618393316</v>
+        <v>85.73703618393272</v>
       </c>
       <c r="I33" t="n">
-        <v>66.7297445854711</v>
+        <v>66.72974458547111</v>
       </c>
       <c r="J33" t="n">
         <v>160.4070140760884</v>
@@ -6807,13 +6807,13 @@
         <v>2435.688930772624</v>
       </c>
       <c r="T33" t="n">
-        <v>2243.04593045048</v>
+        <v>2243.045930450479</v>
       </c>
       <c r="U33" t="n">
         <v>2014.978083584895</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.825975353153</v>
+        <v>1779.825975353152</v>
       </c>
       <c r="W33" t="n">
         <v>1525.588618624951</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>798.6861593387674</v>
+        <v>407.0472151894216</v>
       </c>
       <c r="C34" t="n">
-        <v>727.6597124481971</v>
+        <v>336.0207682988512</v>
       </c>
       <c r="D34" t="n">
-        <v>577.5430730358613</v>
+        <v>283.813864923852</v>
       </c>
       <c r="E34" t="n">
-        <v>527.5397154908047</v>
+        <v>233.8105073787953</v>
       </c>
       <c r="F34" t="n">
-        <v>380.6497679928943</v>
+        <v>184.8302959182215</v>
       </c>
       <c r="G34" t="n">
-        <v>212.9469313676133</v>
+        <v>115.0371953302769</v>
       </c>
       <c r="H34" t="n">
-        <v>66.7297445854711</v>
+        <v>66.72974458547111</v>
       </c>
       <c r="I34" t="n">
-        <v>66.7297445854711</v>
+        <v>66.72974458547111</v>
       </c>
       <c r="J34" t="n">
-        <v>111.8523770324066</v>
+        <v>111.8523770324067</v>
       </c>
       <c r="K34" t="n">
         <v>315.8395599812829</v>
@@ -6880,28 +6880,28 @@
         <v>1927.51217624178</v>
       </c>
       <c r="R34" t="n">
-        <v>1927.51217624178</v>
+        <v>1837.681718999308</v>
       </c>
       <c r="S34" t="n">
-        <v>1798.719742496877</v>
+        <v>1645.995834826134</v>
       </c>
       <c r="T34" t="n">
-        <v>1674.862863103739</v>
+        <v>1522.138955432997</v>
       </c>
       <c r="U34" t="n">
-        <v>1483.669732266719</v>
+        <v>1330.945824595977</v>
       </c>
       <c r="V34" t="n">
-        <v>1326.894980098169</v>
+        <v>1174.171072427426</v>
       </c>
       <c r="W34" t="n">
-        <v>1135.387546098545</v>
+        <v>884.7539023904658</v>
       </c>
       <c r="X34" t="n">
-        <v>1005.307731237864</v>
+        <v>656.7643514924484</v>
       </c>
       <c r="Y34" t="n">
-        <v>882.4248881316706</v>
+        <v>533.8815083862548</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464968</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307327</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="36">
@@ -6990,43 +6990,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G36" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
@@ -7047,7 +7047,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7056,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>698.2736995386224</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C37" t="n">
-        <v>628.0089511845589</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D37" t="n">
-        <v>576.5637463460666</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E37" t="n">
-        <v>428.6506527636735</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F37" t="n">
-        <v>380.4321398396066</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G37" t="n">
-        <v>212.7293032143256</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7114,31 +7114,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>1791.646827515027</v>
+        <v>1744.449641246691</v>
       </c>
       <c r="T37" t="n">
-        <v>1668.551646658396</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U37" t="n">
-        <v>1478.120214357883</v>
+        <v>1332.251593515704</v>
       </c>
       <c r="V37" t="n">
-        <v>1322.10716072584</v>
+        <v>1077.567105309817</v>
       </c>
       <c r="W37" t="n">
-        <v>1032.689990688879</v>
+        <v>788.1499352728561</v>
       </c>
       <c r="X37" t="n">
-        <v>903.3718743647053</v>
+        <v>658.831818948682</v>
       </c>
       <c r="Y37" t="n">
-        <v>781.2507297950186</v>
+        <v>536.7106743789952</v>
       </c>
     </row>
     <row r="38">
@@ -7157,67 +7157,67 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464969</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
         <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495725</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
         <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7275,28 +7275,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>651.0765132702857</v>
+        <v>500.9308303909362</v>
       </c>
       <c r="C40" t="n">
-        <v>580.8117649162222</v>
+        <v>430.6660820368726</v>
       </c>
       <c r="D40" t="n">
-        <v>529.3665600777299</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E40" t="n">
-        <v>480.1249010691802</v>
+        <v>231.307783615987</v>
       </c>
       <c r="F40" t="n">
-        <v>333.2349535712699</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G40" t="n">
-        <v>264.2035515198323</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
-        <v>117.9863647376901</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1522.683025816216</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U40" t="n">
-        <v>1332.251593515703</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V40" t="n">
-        <v>1176.23853988366</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W40" t="n">
-        <v>985.4928044205424</v>
+        <v>976.6518270891708</v>
       </c>
       <c r="X40" t="n">
-        <v>856.1746880963685</v>
+        <v>748.6622761911534</v>
       </c>
       <c r="Y40" t="n">
-        <v>734.0535435266819</v>
+        <v>626.5411316214667</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
@@ -7394,13 +7394,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464974</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307327</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7409,25 +7409,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
@@ -7442,13 +7442,13 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
         <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X41" t="n">
         <v>2290.53823536262</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
@@ -7512,28 +7512,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>839.5784050866012</v>
+        <v>453.7336441225985</v>
       </c>
       <c r="C43" t="n">
-        <v>769.3136567325377</v>
+        <v>383.468895768535</v>
       </c>
       <c r="D43" t="n">
-        <v>717.8684518940454</v>
+        <v>332.0236909300427</v>
       </c>
       <c r="E43" t="n">
-        <v>624.6477645191717</v>
+        <v>282.7820319214929</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>234.5635189974259</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>165.5321169459883</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>117.9863647376894</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218342</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489162</v>
+        <v>1744.44964124669</v>
       </c>
       <c r="T43" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U43" t="n">
-        <v>1520.753485332018</v>
+        <v>1233.58015894186</v>
       </c>
       <c r="V43" t="n">
-        <v>1364.740431699975</v>
+        <v>1077.567105309816</v>
       </c>
       <c r="W43" t="n">
-        <v>1173.994696236858</v>
+        <v>788.1499352728556</v>
       </c>
       <c r="X43" t="n">
-        <v>1044.676579912684</v>
+        <v>658.8318189486816</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.5554353429974</v>
+        <v>536.7106743789949</v>
       </c>
     </row>
     <row r="44">
@@ -7631,13 +7631,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464968</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307329</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218342</v>
@@ -7646,22 +7646,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296686</v>
@@ -7679,19 +7679,19 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X44" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="45">
@@ -7728,25 +7728,25 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>740.9069705127577</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C46" t="n">
-        <v>670.6422221586942</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D46" t="n">
-        <v>619.1970173202019</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E46" t="n">
-        <v>569.9553583116523</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212613</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218342</v>
@@ -7828,28 +7828,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088492</v>
+        <v>1884.661277114357</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489162</v>
+        <v>1692.975392941184</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.184917632532</v>
+        <v>1569.880212084553</v>
       </c>
       <c r="U46" t="n">
-        <v>1520.753485332018</v>
+        <v>1280.777345210197</v>
       </c>
       <c r="V46" t="n">
-        <v>1364.740431699975</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W46" t="n">
-        <v>1173.994696236858</v>
+        <v>835.3471215411926</v>
       </c>
       <c r="X46" t="n">
-        <v>946.0051453388405</v>
+        <v>607.3575706431752</v>
       </c>
       <c r="Y46" t="n">
-        <v>823.8840007691539</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
   </sheetData>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>213.8677805682744</v>
+        <v>213.8677805682738</v>
       </c>
       <c r="L8" t="n">
-        <v>228.0473863505258</v>
+        <v>228.0473863505252</v>
       </c>
       <c r="M8" t="n">
-        <v>221.7573265905349</v>
+        <v>221.7573265905342</v>
       </c>
       <c r="N8" t="n">
-        <v>220.6851794710452</v>
+        <v>220.6851794710445</v>
       </c>
       <c r="O8" t="n">
-        <v>221.8567179355896</v>
+        <v>221.8567179355889</v>
       </c>
       <c r="P8" t="n">
-        <v>224.1990717385763</v>
+        <v>224.1990717385757</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>124.3650025758401</v>
+        <v>124.3650025758399</v>
       </c>
       <c r="K9" t="n">
-        <v>133.6153305693657</v>
+        <v>133.6153305693653</v>
       </c>
       <c r="L9" t="n">
-        <v>132.8718554951906</v>
+        <v>132.8718554951901</v>
       </c>
       <c r="M9" t="n">
-        <v>135.5027961091475</v>
+        <v>135.502796109147</v>
       </c>
       <c r="N9" t="n">
-        <v>124.5349651374198</v>
+        <v>124.5349651374192</v>
       </c>
       <c r="O9" t="n">
-        <v>136.3694007948893</v>
+        <v>136.3694007948887</v>
       </c>
       <c r="P9" t="n">
-        <v>128.9768164173289</v>
+        <v>128.9768164173285</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.6410168537939</v>
+        <v>136.6410168537936</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,16 +8614,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>131.6226139202309</v>
+        <v>131.6226139202307</v>
       </c>
       <c r="M10" t="n">
-        <v>135.4863965628154</v>
+        <v>135.4863965628151</v>
       </c>
       <c r="N10" t="n">
-        <v>124.3279380250451</v>
+        <v>124.3279380250448</v>
       </c>
       <c r="O10" t="n">
-        <v>135.3552454599789</v>
+        <v>135.3552454599786</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>-4.405364961712621e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>10.77149445565419</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>10.77149445565442</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>4.583000645652646e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>4.592992652874273e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>10.77149445565351</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>10.77149445565439</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>4.583000645652646e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>10.77149445565351</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>10.77149445565439</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>4.583000645652646e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>4.592992652874273e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.192911227309473</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958329</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.262802037461</v>
+        <v>31.73550625764059</v>
       </c>
     </row>
     <row r="12">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>7.531752999057062e-13</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23498,10 +23498,10 @@
         <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>83.92851037866873</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>27.15795811235437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>52.28225787287836</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>52.28225787287656</v>
       </c>
     </row>
     <row r="18">
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>52.28225787287687</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>52.28225787287836</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24212,7 +24212,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>41.72511615689018</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>26.48762760590012</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24254,7 +24254,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>15.2374885509907</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24443,19 +24443,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>116.7891675947901</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>149.4785689496389</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -24503,7 +24503,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988204</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24683,7 +24683,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>87.79781201359884</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -24731,16 +24731,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>14.02444567589057</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -25874,7 +25874,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-13</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25925,7 +25925,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>-3.374240735511781e-13</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>872957.0616678619</v>
+        <v>872957.0616678616</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>720609.9513783755</v>
+        <v>720609.9513783756</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>720609.9513783758</v>
+        <v>720609.9513783755</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>769032.8617075532</v>
+        <v>769032.8617075533</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>769032.8617075532</v>
+        <v>769032.8617075533</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>721858.8497501924</v>
+        <v>721858.8497501923</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>721858.8497501921</v>
+        <v>721858.8497501923</v>
       </c>
     </row>
     <row r="12">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>675902.9794415567</v>
+        <v>675902.9794415568</v>
       </c>
       <c r="C2" t="n">
-        <v>675902.9794415566</v>
+        <v>675902.979441557</v>
       </c>
       <c r="D2" t="n">
         <v>675906.191637488</v>
       </c>
       <c r="E2" t="n">
-        <v>630738.0831591205</v>
+        <v>630738.0831591203</v>
       </c>
       <c r="F2" t="n">
-        <v>630738.0831591206</v>
+        <v>630738.0831591203</v>
       </c>
       <c r="G2" t="n">
-        <v>673926.0842635218</v>
+        <v>673926.0842635217</v>
       </c>
       <c r="H2" t="n">
-        <v>673926.0842635217</v>
+        <v>673926.0842635216</v>
       </c>
       <c r="I2" t="n">
-        <v>674619.3717600114</v>
+        <v>674619.3717600112</v>
       </c>
       <c r="J2" t="n">
         <v>631431.3706556088</v>
       </c>
       <c r="K2" t="n">
-        <v>631431.3706556086</v>
+        <v>631431.3706556092</v>
       </c>
       <c r="L2" t="n">
         <v>677359.4601380344</v>
@@ -26347,13 +26347,13 @@
         <v>677359.4601380338</v>
       </c>
       <c r="N2" t="n">
+        <v>677359.4601380337</v>
+      </c>
+      <c r="O2" t="n">
         <v>677359.4601380343</v>
       </c>
-      <c r="O2" t="n">
-        <v>677359.4601380335</v>
-      </c>
       <c r="P2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380337</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>10420.33926655401</v>
+        <v>10420.33926655488</v>
       </c>
       <c r="E3" t="n">
-        <v>1151572.830875721</v>
+        <v>1151572.83087572</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487424</v>
+        <v>37580.10929487397</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>77544.51094157051</v>
+        <v>77544.51094157057</v>
       </c>
       <c r="M3" t="n">
         <v>207113.9109540876</v>
@@ -26421,43 +26421,43 @@
         <v>463150.7311021098</v>
       </c>
       <c r="D4" t="n">
-        <v>459028.1883762666</v>
+        <v>459028.1883762663</v>
       </c>
       <c r="E4" t="n">
-        <v>61265.27723866008</v>
+        <v>61265.27723866005</v>
       </c>
       <c r="F4" t="n">
-        <v>61265.2772386601</v>
+        <v>61265.27723866004</v>
       </c>
       <c r="G4" t="n">
-        <v>91028.44393036209</v>
+        <v>91028.44393036218</v>
       </c>
       <c r="H4" t="n">
-        <v>91028.44393036212</v>
+        <v>91028.44393036215</v>
       </c>
       <c r="I4" t="n">
-        <v>91501.30607406868</v>
+        <v>91501.30607406871</v>
       </c>
       <c r="J4" t="n">
-        <v>61738.13938236666</v>
+        <v>61738.13938236667</v>
       </c>
       <c r="K4" t="n">
-        <v>61738.13938236663</v>
+        <v>61738.13938236664</v>
       </c>
       <c r="L4" t="n">
         <v>93397.00574718695</v>
       </c>
       <c r="M4" t="n">
-        <v>93403.78684820638</v>
+        <v>93403.78684820629</v>
       </c>
       <c r="N4" t="n">
-        <v>93403.78684820639</v>
+        <v>93403.78684820632</v>
       </c>
       <c r="O4" t="n">
         <v>93403.78684820639</v>
       </c>
       <c r="P4" t="n">
-        <v>93403.78684820639</v>
+        <v>93403.78684820635</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33892.84951251483</v>
+        <v>33892.84951251485</v>
       </c>
       <c r="E5" t="n">
         <v>78255.49332178175</v>
@@ -26485,7 +26485,7 @@
         <v>82204.64608217022</v>
       </c>
       <c r="H5" t="n">
-        <v>82204.64608217021</v>
+        <v>82204.64608217022</v>
       </c>
       <c r="I5" t="n">
         <v>82370.04347866886</v>
@@ -26494,19 +26494,19 @@
         <v>78420.8907182804</v>
       </c>
       <c r="K5" t="n">
-        <v>78420.89071828038</v>
+        <v>78420.8907182804</v>
       </c>
       <c r="L5" t="n">
-        <v>82620.59982082553</v>
+        <v>82620.59982082555</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624984</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="P5" t="n">
         <v>82518.59730624985</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>179124.648339447</v>
+        <v>179120.234761579</v>
       </c>
       <c r="C6" t="n">
-        <v>179124.6483394468</v>
+        <v>179120.2347615791</v>
       </c>
       <c r="D6" t="n">
-        <v>172564.8144821525</v>
+        <v>172560.4106382109</v>
       </c>
       <c r="E6" t="n">
-        <v>-660355.5182770423</v>
+        <v>-660496.795176978</v>
       </c>
       <c r="F6" t="n">
-        <v>491217.3125986787</v>
+        <v>491076.0356987424</v>
       </c>
       <c r="G6" t="n">
-        <v>463112.8849561153</v>
+        <v>463102.4807867986</v>
       </c>
       <c r="H6" t="n">
-        <v>500692.9942509894</v>
+        <v>500682.5900816726</v>
       </c>
       <c r="I6" t="n">
-        <v>500024.6235053937</v>
+        <v>500016.3202072781</v>
       </c>
       <c r="J6" t="n">
-        <v>491272.3405549618</v>
+        <v>491133.1645262272</v>
       </c>
       <c r="K6" t="n">
-        <v>491272.3405549615</v>
+        <v>491133.1645262275</v>
       </c>
       <c r="L6" t="n">
-        <v>423797.3436284515</v>
+        <v>423797.3436284514</v>
       </c>
       <c r="M6" t="n">
-        <v>294323.16502949</v>
+        <v>294323.1650294901</v>
       </c>
       <c r="N6" t="n">
+        <v>501437.0759835776</v>
+      </c>
+      <c r="O6" t="n">
         <v>501437.075983578</v>
       </c>
-      <c r="O6" t="n">
-        <v>501437.0759835772</v>
-      </c>
       <c r="P6" t="n">
-        <v>501437.0759835772</v>
+        <v>501437.0759835776</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>46.97513661859253</v>
+      </c>
+      <c r="F2" t="n">
+        <v>46.97513661859252</v>
+      </c>
+      <c r="G2" t="n">
+        <v>93.9502732371852</v>
+      </c>
+      <c r="H2" t="n">
+        <v>93.9502732371852</v>
+      </c>
+      <c r="I2" t="n">
+        <v>93.9502732371852</v>
+      </c>
+      <c r="J2" t="n">
+        <v>46.9751366185926</v>
+      </c>
+      <c r="K2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="F2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="G2" t="n">
-        <v>93.95027323718514</v>
-      </c>
-      <c r="H2" t="n">
-        <v>93.95027323718514</v>
-      </c>
-      <c r="I2" t="n">
-        <v>93.95027323718514</v>
-      </c>
-      <c r="J2" t="n">
-        <v>46.97513661859259</v>
-      </c>
-      <c r="K2" t="n">
-        <v>46.97513661859259</v>
-      </c>
       <c r="L2" t="n">
-        <v>96.93063867696314</v>
+        <v>96.9306386769631</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.1674088309556</v>
+        <v>12.16740883095661</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26814,16 +26814,16 @@
         <v>834.1218073183888</v>
       </c>
       <c r="K4" t="n">
-        <v>834.1218073183886</v>
+        <v>834.1218073183888</v>
       </c>
       <c r="L4" t="n">
-        <v>834.1218073183886</v>
+        <v>834.1218073183888</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022926</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>96.93063867696313</v>
+        <v>96.93063867696321</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7540815511418799</v>
+        <v>0.7540815511417946</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.1674088309556</v>
+        <v>12.16740883095661</v>
       </c>
       <c r="E3" t="n">
-        <v>1077.609291762343</v>
+        <v>1077.609291762342</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>828.6811034861964</v>
+        <v>828.6811034861967</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859268</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27868,13 +27868,13 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>338.9738594999279</v>
+        <v>338.9738594999278</v>
       </c>
       <c r="I8" t="n">
-        <v>208.5901246298816</v>
+        <v>208.5901246298815</v>
       </c>
       <c r="J8" t="n">
-        <v>7.797757232938877</v>
+        <v>7.797757232938532</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,13 +27895,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.708515212961462</v>
+        <v>4.708515212961022</v>
       </c>
       <c r="R8" t="n">
-        <v>146.7965109261647</v>
+        <v>146.7965109261644</v>
       </c>
       <c r="S8" t="n">
-        <v>207.9054371089171</v>
+        <v>207.905437108917</v>
       </c>
       <c r="T8" t="n">
         <v>222.8817276258097</v>
@@ -27950,7 +27950,7 @@
         <v>111.9826835360647</v>
       </c>
       <c r="I9" t="n">
-        <v>88.49555587666978</v>
+        <v>88.49555587666971</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>98.53291113933174</v>
+        <v>98.5329111393316</v>
       </c>
       <c r="S9" t="n">
         <v>171.1970486849784</v>
@@ -28032,10 +28032,10 @@
         <v>154.7906423303271</v>
       </c>
       <c r="J10" t="n">
-        <v>91.8079352235852</v>
+        <v>91.80793522358508</v>
       </c>
       <c r="K10" t="n">
-        <v>19.72031994293839</v>
+        <v>19.72031994293817</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,13 +28050,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.06774881564695123</v>
+        <v>0.06774881564673008</v>
       </c>
       <c r="Q10" t="n">
-        <v>84.32476451822009</v>
+        <v>84.32476451821994</v>
       </c>
       <c r="R10" t="n">
-        <v>176.3068339332694</v>
+        <v>176.3068339332693</v>
       </c>
       <c r="S10" t="n">
         <v>223.6342222545306</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="C17" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="D17" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="E17" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="F17" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="G17" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="H17" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="T17" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="U17" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="V17" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="W17" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="X17" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="Y17" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.95027323718514</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="F19" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="I19" t="n">
-        <v>91.48995205464209</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>93.95027323718514</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="U19" t="n">
-        <v>93.95027323718514</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="W19" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="X19" t="n">
-        <v>93.95027323718514</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.95027323718514</v>
+        <v>91.48995205464239</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="C20" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="D20" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="E20" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="F20" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="G20" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="H20" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="T20" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="U20" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="V20" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="W20" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="X20" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="Y20" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="E22" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="F22" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="G22" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="H22" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="I22" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>93.95027323718514</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="U22" t="n">
-        <v>93.95027323718514</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="W22" t="n">
-        <v>93.95027323718514</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>91.48995205464254</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>86.47183148750426</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="C23" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="D23" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="E23" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="F23" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="G23" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="H23" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="T23" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="U23" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="V23" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="W23" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="X23" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="Y23" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="E25" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="F25" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="G25" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="H25" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="I25" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>93.95027323718514</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>91.48995205464297</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>93.95027323718514</v>
+        <v>86.47183148750472</v>
       </c>
       <c r="X25" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.95027323718514</v>
+        <v>93.9502732371852</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>96.93063867696314</v>
+        <v>96.9306386769631</v>
       </c>
       <c r="C32" t="n">
-        <v>96.93063867696314</v>
+        <v>96.9306386769631</v>
       </c>
       <c r="D32" t="n">
-        <v>96.93063867696314</v>
+        <v>96.9306386769631</v>
       </c>
       <c r="E32" t="n">
-        <v>96.93063867696314</v>
+        <v>96.9306386769631</v>
       </c>
       <c r="F32" t="n">
-        <v>96.93063867696314</v>
+        <v>96.9306386769631</v>
       </c>
       <c r="G32" t="n">
-        <v>96.93063867696314</v>
+        <v>96.9306386769631</v>
       </c>
       <c r="H32" t="n">
-        <v>96.93063867696314</v>
+        <v>96.9306386769631</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>96.93063867696314</v>
+        <v>96.9306386769631</v>
       </c>
       <c r="T32" t="n">
-        <v>96.93063867696314</v>
+        <v>96.9306386769631</v>
       </c>
       <c r="U32" t="n">
-        <v>96.93063867696314</v>
+        <v>96.9306386769631</v>
       </c>
       <c r="V32" t="n">
-        <v>96.93063867696314</v>
+        <v>96.9306386769631</v>
       </c>
       <c r="W32" t="n">
-        <v>96.93063867696314</v>
+        <v>96.9306386769631</v>
       </c>
       <c r="X32" t="n">
-        <v>96.93063867696314</v>
+        <v>96.9306386769631</v>
       </c>
       <c r="Y32" t="n">
-        <v>96.93063867696314</v>
+        <v>96.9306386769631</v>
       </c>
     </row>
     <row r="33">
@@ -29904,25 +29904,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>96.93063867696314</v>
+        <v>54.26602991707244</v>
       </c>
       <c r="C34" t="n">
-        <v>96.93063867696314</v>
+        <v>96.9306386769631</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>96.9306386769631</v>
       </c>
       <c r="E34" t="n">
-        <v>96.93063867696314</v>
+        <v>96.9306386769631</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>96.9306386769631</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>96.9306386769631</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>96.9306386769631</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983812</v>
@@ -29952,28 +29952,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>62.26451592398787</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>96.93063867696314</v>
+        <v>96.9306386769631</v>
       </c>
       <c r="U34" t="n">
-        <v>96.93063867696314</v>
+        <v>96.9306386769631</v>
       </c>
       <c r="V34" t="n">
-        <v>96.93063867696314</v>
+        <v>96.9306386769631</v>
       </c>
       <c r="W34" t="n">
-        <v>96.93063867696314</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>96.93063867696314</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>96.93063867696314</v>
+        <v>96.9306386769631</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810502</v>
+        <v>46.7252144056539</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>55.47778196371112</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810501</v>
+        <v>55.47778196371215</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I40" t="n">
-        <v>45.39291458738647</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E43" t="n">
-        <v>54.14548214544421</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>45.39291458738717</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F46" t="n">
-        <v>54.14548214544419</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>46.72521440565367</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04891420635560036</v>
+        <v>0.04891420635560443</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5009426158392923</v>
+        <v>0.5009426158393341</v>
       </c>
       <c r="I8" t="n">
-        <v>1.885764940524285</v>
+        <v>1.885764940524442</v>
       </c>
       <c r="J8" t="n">
-        <v>4.15153212167364</v>
+        <v>4.151532121673985</v>
       </c>
       <c r="K8" t="n">
-        <v>6.222070476706205</v>
+        <v>6.222070476706723</v>
       </c>
       <c r="L8" t="n">
-        <v>7.719028619461411</v>
+        <v>7.719028619462053</v>
       </c>
       <c r="M8" t="n">
-        <v>8.588906636737818</v>
+        <v>8.588906636738534</v>
       </c>
       <c r="N8" t="n">
-        <v>8.727884125545669</v>
+        <v>8.727884125546396</v>
       </c>
       <c r="O8" t="n">
-        <v>8.241493486097166</v>
+        <v>8.241493486097854</v>
       </c>
       <c r="P8" t="n">
-        <v>7.033924016693282</v>
+        <v>7.033924016693867</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.282184001583342</v>
+        <v>5.282184001583782</v>
       </c>
       <c r="R8" t="n">
-        <v>3.072607014984984</v>
+        <v>3.07260701498524</v>
       </c>
       <c r="S8" t="n">
-        <v>1.114632477328244</v>
+        <v>1.114632477328337</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2141219383216407</v>
+        <v>0.2141219383216585</v>
       </c>
       <c r="U8" t="n">
-        <v>0.003913136508448028</v>
+        <v>0.003913136508448354</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02617140767413091</v>
+        <v>0.02617140767413309</v>
       </c>
       <c r="H9" t="n">
-        <v>0.252760700431738</v>
+        <v>0.2527607004317591</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9010769747452969</v>
+        <v>0.9010769747453719</v>
       </c>
       <c r="J9" t="n">
-        <v>2.472624090826553</v>
+        <v>2.472624090826759</v>
       </c>
       <c r="K9" t="n">
-        <v>4.226108404993324</v>
+        <v>4.226108404993676</v>
       </c>
       <c r="L9" t="n">
-        <v>5.682524284683557</v>
+        <v>5.68252428468403</v>
       </c>
       <c r="M9" t="n">
-        <v>6.6312378128708</v>
+        <v>6.631237812871353</v>
       </c>
       <c r="N9" t="n">
-        <v>6.806746945913549</v>
+        <v>6.806746945914115</v>
       </c>
       <c r="O9" t="n">
-        <v>6.226843649555174</v>
+        <v>6.226843649555692</v>
       </c>
       <c r="P9" t="n">
-        <v>4.997590997001367</v>
+        <v>4.997590997001783</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.340757232227658</v>
+        <v>3.340757232227936</v>
       </c>
       <c r="R9" t="n">
-        <v>1.624923013311392</v>
+        <v>1.624923013311527</v>
       </c>
       <c r="S9" t="n">
-        <v>0.486122418859405</v>
+        <v>0.4861224188594455</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1054891388268697</v>
+        <v>0.1054891388268785</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001721803136455982</v>
+        <v>0.001721803136456125</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02194122903942813</v>
+        <v>0.02194122903942995</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1950774727323702</v>
+        <v>0.1950774727323865</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6598325969311661</v>
+        <v>0.659832596931221</v>
       </c>
       <c r="J10" t="n">
-        <v>1.551244893087569</v>
+        <v>1.551244893087698</v>
       </c>
       <c r="K10" t="n">
-        <v>2.549171882944467</v>
+        <v>2.549171882944679</v>
       </c>
       <c r="L10" t="n">
-        <v>3.262062361007342</v>
+        <v>3.262062361007614</v>
       </c>
       <c r="M10" t="n">
-        <v>3.439387384789629</v>
+        <v>3.439387384789915</v>
       </c>
       <c r="N10" t="n">
-        <v>3.357606440188126</v>
+        <v>3.357606440188406</v>
       </c>
       <c r="O10" t="n">
-        <v>3.101292991863897</v>
+        <v>3.101292991864155</v>
       </c>
       <c r="P10" t="n">
-        <v>2.653691919459561</v>
+        <v>2.653691919459782</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.837278733474295</v>
+        <v>1.837278733474448</v>
       </c>
       <c r="R10" t="n">
-        <v>0.9865574439001045</v>
+        <v>0.9865574439001866</v>
       </c>
       <c r="S10" t="n">
-        <v>0.38237578244167</v>
+        <v>0.3823757824417019</v>
       </c>
       <c r="T10" t="n">
-        <v>0.09374888771392016</v>
+        <v>0.09374888771392796</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001196794311241536</v>
+        <v>0.001196794311241635</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33026,13 +33026,13 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353167</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233485</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837924</v>
@@ -33272,7 +33272,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837935</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
         <v>557.7086478970249</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34448,7 +34448,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138795</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,10 +35571,10 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
         <v>391.8320827861326</v>
@@ -35583,7 +35583,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3693751564862</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222434</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36373,13 +36373,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>409.5334806750258</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>70.38469299787914</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609577</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013302</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004591</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36838,7 +36838,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>549.6926102858801</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129113</v>
@@ -36850,7 +36850,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>261.5657992593738</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222472</v>
@@ -36920,7 +36920,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004602</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525805</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N31" t="n">
         <v>391.8320827861326</v>
@@ -37005,7 +37005,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37075,7 +37075,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>549.6926102858801</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129113</v>
@@ -37087,7 +37087,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>261.5657992593738</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222472</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687129</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302267</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597746</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37476,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302265</v>
@@ -37783,7 +37783,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923326</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302265</v>
@@ -38096,7 +38096,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340053</v>
